--- a/data/trans_camb/P15_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,42</t>
+          <t>0,0; 13,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,87</t>
+          <t>0,0; 6,4</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-30,34%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 4,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,12</t>
+          <t>0,21; 2,99</t>
         </is>
       </c>
     </row>
@@ -974,22 +974,22 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-0,03</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,83</t>
+          <t>-1,3; 2,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,6</t>
+          <t>-2,0; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,0</t>
+          <t>-3,66; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,5</t>
+          <t>-0,36; 2,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,18</t>
+          <t>-1,09; 0,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,34</t>
+          <t>-1,19; 0,53</t>
         </is>
       </c>
     </row>
@@ -1175,22 +1175,22 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>126,46%</t>
+          <t>120,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>278,17%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-26,06%</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>214,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>136,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1483,14 +1483,238 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,06</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,99</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 1,27</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 0,49</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 2,1</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 1,02</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 0,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 1,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>90,42%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-8,08%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>217,6%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>206,23%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>447,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
